--- a/bom - digikey/bom-digikey.xlsx
+++ b/bom - digikey/bom-digikey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/github/octo-nail/bom - digikey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7B1BA3-8095-9442-9282-AD5B06385FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708D2032-3234-6B45-BD6D-9485F876B296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{EFE62A5B-1CDB-2442-B361-39A5CDE4E8BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -263,28 +263,10 @@
     <t>MAX31855KASA+-ND</t>
   </si>
   <si>
-    <t>customer ref.</t>
-  </si>
-  <si>
-    <t>ac plug</t>
-  </si>
-  <si>
-    <t>buzzer</t>
-  </si>
-  <si>
-    <t>cap</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>addr rgb led</t>
-  </si>
-  <si>
-    <t>microcontroller</t>
-  </si>
-  <si>
-    <t>psu</t>
+    <t>399-C1206C104K5RAC7210CT-ND</t>
+  </si>
+  <si>
+    <t>C1206C103K2REC7800</t>
   </si>
 </sst>
 </file>
@@ -650,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193EF4A6-6758-8841-995F-1267B5030448}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,12 +647,12 @@
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.83203125" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="11" max="12" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,13 +693,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -734,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>E2*$O$2</f>
+        <f>E2*$N$2</f>
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -754,14 +733,11 @@
         <v>15</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -778,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F14" si="0">E3*$O$2</f>
+        <f t="shared" ref="F3:F14" si="0">E3*$N$2</f>
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -798,11 +774,8 @@
         <v>20</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -825,15 +798,16 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -856,15 +830,20 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -891,11 +870,8 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -934,11 +910,8 @@
         <v>70</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -965,11 +938,8 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1008,11 +978,8 @@
       <c r="M9" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1049,9 +1016,8 @@
       <c r="M10" s="1">
         <v>1E-3</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1090,9 +1056,8 @@
       <c r="M11" s="1">
         <v>0.76800000000000002</v>
       </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1129,9 +1094,8 @@
         <v>56</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1170,9 +1134,8 @@
       <c r="M13" s="1">
         <v>3.0390000000000001</v>
       </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1209,7 +1172,6 @@
         <v>65</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1219,6 +1181,8 @@
     <hyperlink ref="L13" r:id="rId4" display="https://www.digikey.ca/en/products/detail/analog-devices-inc-maxim-integrated/MAX31855KASA/2591564" xr:uid="{83D9371B-EBE4-8A4F-8DC6-FD239A135459}"/>
     <hyperlink ref="L14" r:id="rId5" display="https://www.digikey.ca/en/products/detail/cliff-electronic-components-ltd/CP300405/16353372" xr:uid="{2382387A-1D1F-FB49-AD6F-A2D69C7EF8F3}"/>
     <hyperlink ref="L3" r:id="rId6" display="https://www.digikey.ca/en/products/detail/db-unlimited/TP124005-2/9990670" xr:uid="{30D722E2-2B33-324B-A4F4-AB9A8FBE0E5A}"/>
+    <hyperlink ref="K5" r:id="rId7" display="https://www.digikey.ca/en/products/detail/kemet/C1206C103K2REC7800/8644233" xr:uid="{F5BE257F-FABF-F747-B94B-E743742C7CD6}"/>
+    <hyperlink ref="L5" r:id="rId8" display="https://www.digikey.ca/en/products/detail/kemet/C1206C103K2REC7800/8644233" xr:uid="{01E162F1-A855-BC4E-8F36-186D65EBDB1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
